--- a/data/gpqa_diamond_15_o1_preview.xlsx
+++ b/data/gpqa_diamond_15_o1_preview.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Custom-LLM-AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A73F696-34BA-4ACC-B310-6D86D20EB10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B126EDA-EC88-410B-A238-1A14F20E7AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gpqa_diamond_15_o1_preview" sheetId="1" r:id="rId1"/>
+    <sheet name="gpqa_diamond_15" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -67,7 +67,11 @@
     <t>c</t>
   </si>
   <si>
-    <t xml:space="preserve">trans-cinnamaldehyde was treated with methylmagnesium bromide, forming product 1. Tracking the reaction
+    <t>trans-cinnamaldehyde was treated with methylmagnesium bromide, forming product 1.
+1 was treated with pyridinium chlorochromate, forming product 2.
+3 was treated with (dimethyl(oxo)-l6-sulfaneylidene)methane in DMSO at elevated temperature, forming product 3.
+how many carbon atoms are there in product 3?
+Tracking the reaction
 OK, let me see. First up, trans-cinnamaldehyde meets methylmagnesium bromide, adding a methyl group and creating a secondary alcohol.
 Tracking the reaction
 I’m thinking through the oxidation of an alcohol to a ketone using PCC, followed by the reaction with (dimethyl(oxo)-l6-sulfaneylidene)methane in DMSO, likely leading to epoxidation of the alpha, beta-unsaturated ketone.
@@ -84,14 +88,15 @@
 Transforming the substrate
 I'm thinking through the reaction of a ketone with sulfoxonium methylide, which converts the ketone into an epoxide by adding a methylene group across the carbonyl, ultimately forming an oxirane ring.
 Mapping out the structure
-I’m curious about how a methylene group addition transforms a ketone into an epoxide, forming a new carbon bridge between carbons 4 and 6.
-1 was treated with pyridinium chlorochromate, forming product 2.
-3 was treated with (dimethyl(oxo)-l6-sulfaneylidene)methane in DMSO at elevated temperature, forming product 3.
-how many carbon atoms are there in product 3?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">which of the following molecules has c3h symmetry? Analyzing symmetry
+I’m curious about how a methylene group addition transforms a ketone into an epoxide, forming a new carbon bridge between carbons 4 and 6.</t>
+  </si>
+  <si>
+    <t>which of the following molecules has c3h symmetry?
+triisopropyl borate
+quinuclidine
+benzo[1,2-c:3,4-c':5,6-c'']trifuran-1,3,4,6,7,9-hexaone
+triphenyleno[1,2-c:5,6-c':9,10-c'']trifuran-1,3,6,8,11,13-hexaone
+Analyzing symmetry
 I’m examining four molecules to identify which has C3h symmetry, which includes a threefold rotational axis and a horizontal mirror plane. The first molecule, triisopropyl borate, has D3 symmetry.
 Analyzing molecules
 I’m piecing together the symmetry of various compounds. Considering whether they exhibit C3h symmetry, especially triisopropyl borate, and drawing their structures for further analysis.
@@ -100,15 +105,15 @@
 Analyzing borate molecule
 I’m examining triisopropyl borate, identifying its D3 symmetry by noting the threefold rotational axis and lack of a perpendicular mirror plane due to staggered methyl groups.
 Assessing quinuclidine
-I’m breaking down quinuclidine's C3v symmetry, highlighting its threefold rotational axis and vertical mirror planes, omitting a perpendicular mirror plane for clarity.
-triisopropyl borate
-quinuclidine
-benzo[1,2-c:3,4-c':5,6-c'']trifuran-1,3,4,6,7,9-hexaone
-triphenyleno[1,2-c:5,6-c':9,10-c'']trifuran-1,3,6,8,11,13-hexaone
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A methanol solution of (R)-(+)-Limonene is stirred with Pd/C under a Hydrogen atmosphere. After 1 equivalent of hydrogen is consumed, product 1 is isolated as the major product. Starting the process
+I’m breaking down quinuclidine's C3v symmetry, highlighting its threefold rotational axis and vertical mirror planes, omitting a perpendicular mirror plane for clarity.</t>
+  </si>
+  <si>
+    <t>A methanol solution of (R)-(+)-Limonene is stirred with Pd/C under a Hydrogen atmosphere. After 1 equivalent of hydrogen is consumed, product 1 is isolated as the major product.
+1 is treated with 3-chloroperbenzoic acid, forming product 2.
+Product 2 is treated with sodium methoxide, forming product 3.
+Product 3 is treated with propanoic acid, dicyclohexylcarbodiimide. and a catalytic amount of  4-dimethylaminopyridine, forming product 4.
+what is a valid structure of product 4? (product 4 exists as a mixture of isomers. the correct answer is one of them).
+Starting the process
 I’m beginning with (R)-(+)-Limonene, conducting hydrogenation with Pd/C in methanol to isolate product 1, which I’ll then transform with mCPBA, sodium methoxide, and propanoic acid.
 Breaking down the process
 I’m thinking through limonene's structure with a cyclohexene ring and an isopropenyl group. Hydrogenating with Pd/C and one equivalent of H2, the exocyclic double bond is hydrogenated first, leading to p-menth-1-ene. Double-checking this with the literature.
@@ -119,15 +124,18 @@
 Analyzing reaction specifics
 I’m thinking through the reaction of an unsymmetrical epoxide with methoxide in basic conditions, leading to an alcohol and a methoxy group on cyclohexane, considering stereochemistry and regioselectivity.
 Activating and esterifying
-I’m thinking through the esterification of alcohols with carboxylic acids using DCC and DMAP, resulting in a cyclohexane ring product with specific substituents.
-1 is treated with 3-chloroperbenzoic acid, forming product 2.
-Product 2 is treated with sodium methoxide, forming product 3.
-Product 3 is treated with propanoic acid, dicyclohexylcarbodiimide. and a catalytic amount of  4-dimethylaminopyridine, forming product 4.
-what is a valid structure of product 4? (product 4 exists as a mixture of isomers. the correct answer is one of them).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many of the following compounds will exhibit optical activity? Identifying optically active compounds
+I’m thinking through the esterification of alcohols with carboxylic acids using DCC and DMAP, resulting in a cyclohexane ring product with specific substituents.</t>
+  </si>
+  <si>
+    <t>How many of the following compounds will exhibit optical activity?
+(Z)-1-chloro-2-methylbut-1-ene
+(3aR,7aS,E)-8-(chloromethylene)hexahydro-4,7-methanoisobenzofuran-1,3-dione
+(2R,3S)-2,3-dimethylsuccinic acid
+(2R,3R)-2,3-dimethylsuccinic acid
+(R)-cyclohex-3-en-1-ol
+(1s,3s,5s)-cyclohexane-1,3,5-triol
+1-cyclopentyl-3-methylbutan-1-one
+Identifying optically active compounds
 I’m assessing the optical activity of each compound by examining their molecular structures and stereochemistry. This approach helps pinpoint the optically active ones.
 Clarifying the structure
 I’m thinking through the structure of (Z)-1-chloro-2-methylbut-1-ene, ensuring the double bond positions and substituents align with the correct IUPAC name. Progressing step-by-step to refine the details.
@@ -140,15 +148,7 @@
 Identifying chirality
 I'm thinking through whether the molecules are chiral by examining their symmetry and functional groups, which determines their optically active nature.
 Analyzing molecular structure
-I’m piecing together the molecular structure of 1-cyclopentyl-3-methylbutan-1-one, identifying the critical chiral center at C3 by noting the distinct substituents attached to it.
-(Z)-1-chloro-2-methylbut-1-ene
-(3aR,7aS,E)-8-(chloromethylene)hexahydro-4,7-methanoisobenzofuran-1,3-dione
-(2R,3S)-2,3-dimethylsuccinic acid
-(2R,3R)-2,3-dimethylsuccinic acid
-(R)-cyclohex-3-en-1-ol
-(1s,3s,5s)-cyclohexane-1,3,5-triol
-1-cyclopentyl-3-methylbutan-1-one
-</t>
+I’m piecing together the molecular structure of 1-cyclopentyl-3-methylbutan-1-one, identifying the critical chiral center at C3 by noting the distinct substituents attached to it.</t>
   </si>
   <si>
     <t>Calculate the eigenvector of a quantum mechanical operator $\vec{P}$ for a muon along an arbitrary direction $\vec{n}$ lying in the x-z plane corresponding to the eigenvalue $+\hbar/2$. Given the $X-$component, $P_x$ of the operator $P$ as $\hbar/2$ times a 2 by 2 square matrix having elements in the first row as $(0 1)$, and that in the second row as $(1, 0)$. The $Y-$component, $P_y$ of the operator is given by the product of $\hbar/2$ and a 2 by 2 square matrix having elements in the first row as $(0, -i)$, and that in the second row as $(i, 0)$. Finally, the $Z-$component, $P_z$ of the operator is given by the product of $\hbar/2$  and another 2 by 2 square matrix having elements in the first row as $(1, 0)$, and that in the second row as $(0, -1)$.  What are the elements of the normalized eigenvector? 
@@ -168,7 +168,8 @@
 I calculated k as tan(θ/2), leading to the normalization constant cos(θ/2). The normalized eigenvector is expressed in terms of cosine and sine, ensuring a consistent phase.</t>
   </si>
   <si>
-    <t>A quantum mechanical particle of mass m moves in two dimensions in the following potential, as a function of (r,Оё): V (r, Оё) = 1/2 kr^2 + 3/2 kr^2 cos^2(Оё) Breaking down the potential
+    <t>A quantum mechanical particle of mass m moves in two dimensions in the following potential, as a function of (r,Оё): V (r, Оё) = 1/2 kr^2 + 3/2 kr^2 cos^2(Оё)
+Find the energy spectrum. Breaking down the potential
 I'm analyzing the given potential by separating it into polar coordinates and considering its radial and angular components. The radial part resembles a harmonic oscillator, while the angular part is intricate and could involve Legendre polynomials. This helps in understanding the energy spectrum.
 Piecing together the potential
 I’m synthesizing the angular term into a simple form: V(r, θ) = (5/4) k r^2 + (3/4) k r^2 cos 2θ. This combines an isotropic harmonic oscillator with an angular-dependent term.
@@ -202,8 +203,7 @@
 Wondering about the mistake
 I'm realizing there's a mistake in the last step. It seems like something is off, and I need to figure out what it is.
 Expressing energy levels
-OK, let me see. I'm expressing the energy levels for ωx=2ωy in terms of ℏ\sqrt(k/m) and quantum numbers nx and ny.
-Find the energy spectrum.</t>
+OK, let me see. I'm expressing the energy levels for ωx=2ωy in terms of ℏ\sqrt(k/m) and quantum numbers nx and ny.</t>
   </si>
   <si>
     <t>A common approximation made in many-body nuclear calculations of some interaction (for example an electroweak interaction) is to suppose that nucleons in a nucleus behave in the same way as free nucleons. Which of the following four assumptions jointly imply this ""impulse"" approximation?
@@ -217,7 +217,7 @@
 OK, let's see. The assumptions for the impulse approximation include: interaction with individual nucleons, nucleus transparency, and the nucleon's liberation from binding forces during interaction.</t>
   </si>
   <si>
-    <t>We have a large ensemble of 10.000 (ten thousand) identical systems. Each system has a particle that are the same and under the same conditions. Each particle can move along along a tube (the x-axis direction). 
+    <t>We have a large ensemble of 10.000 (ten thousand) identical systems. Each system has a particle that are the same and under the same conditions. Each particle can move along along a tube (the x-axis direction).
 We know from theoretical modeling that the wave function (from Schrodinger equation) of each particle, in a part of space where it can exist, can be described as:
 ( a / sqrt(1 + x) ) - 0.5*i; where вЂњiвЂќ is the square root of -1, and вЂњsqrt()вЂќ means the square root of.
 When measuring the position of the particles, none were found at x&lt;1 and x&gt;3 (only in between x=1 and x=3).
@@ -240,7 +240,8 @@
 I'm mapping out the energy of particles in different energy states, comparing total energies to identify the optimal configuration for excitation. The second excited state seems to yield the lowest energy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Two stars (Star_1 and Star_2) each have masses 1.5 and 1.2 times that of our Sun, respectively. Assuming LTE and using the EW method, astronomers have determined the elemental abundances of these two stars: [Si/Fe]_1 = 0.3 dex, [Mg/Si]_2 = 0.3 dex, [Fe/H]_1 = 0 dex, and [Mg/H]_2 = 0 dex. Consider the following photospheric composition for the Sun: 12 + log10(nFe/nH) = 7.5 and 12 + log10(nMg/nH) = 7. Calculate the ratio of silicon atoms in the photospheres of Star_1 and Star_2. Gathering data
+    <t>Two stars (Star_1 and Star_2) each have masses 1.5 and 1.2 times that of our Sun, respectively. Assuming LTE and using the EW method, astronomers have determined the elemental abundances of these two stars: [Si/Fe]_1 = 0.3 dex, [Mg/Si]_2 = 0.3 dex, [Fe/H]_1 = 0 dex, and [Mg/H]_2 = 0 dex. Consider the following photospheric composition for the Sun: 12 + log10(nFe/nH) = 7.5 and 12 + log10(nMg/nH) = 7. Calculate the ratio of silicon atoms in the photospheres of Star_1 and Star_2.
+Gathering data
 I’m pulling together elemental abundances for Star_1 and Star_2, comparing them to the Sun, and aiming to calculate the silicon ratio in their photospheres.
 Calculating star ratios
 I’m working through calculating n_Si/n_H for Star_1 and Star_2, using their given [Si/Fe] and [Mg/Si] ratios respectively, to ultimately find the ratio of (n_Si)_1 / (n_Si)_2.
@@ -253,8 +254,7 @@
 Processing information
 I’m assuming the given parameter to ensure smooth progress in the calculations.
 Comparing elemental ratios
-I’m working out the elemental ratios by comparing silicon to hydrogen in the Sun to those in Stars 1 and 2, using logarithmic calculations to derive the ratios.
-</t>
+I’m working out the elemental ratios by comparing silicon to hydrogen in the Sun to those in Stars 1 and 2, using logarithmic calculations to derive the ratios.</t>
   </si>
   <si>
     <t>Astronomers are studying a system of five exoplanets with circular orbits, discovered through the TTV method. The planets (designated as Planet_1 through Planet_5), which are in orbital resonance, have orbital periods in a ratio of 1:2:2.5:3.5:5. Assuming these planets possess the same albedo, what is the ratio of the equilibrium temperatures between Planet_4 and Planet_2? Considering orbital resonance
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1169,11 +1169,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="341" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="403" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="263.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="341" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="356.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="263.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="186" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="186" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="155" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="186" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="341" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="248" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="310" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
